--- a/Plan-test-orinioc.xlsx
+++ b/Plan-test-orinioc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\op_projet5\AlainLoiodice_5_12042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345047E8-3502-4667-8358-09811A627E6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B409ED71-0FF4-4D6F-9E92-CAFB38D3A447}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <t>Validation de formulaire avec des zones non remplies ou avec un email incorrect.</t>
   </si>
   <si>
-    <t>94 à 107</t>
-  </si>
-  <si>
     <t>supprPanier</t>
   </si>
   <si>
@@ -241,45 +238,24 @@
     <t>supprqte</t>
   </si>
   <si>
-    <t>133 à 163</t>
-  </si>
-  <si>
-    <t>Ajouter un article dans le panier avec une qte égale à 1. Diminuer la qte de une unité. Vérifier que la  fenêtre de confirmation s'affiche bien.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Par clic sur bouton"-" on supprime une unite au produit selectionné. Si la qte est égale à un envoi d'une fenetre de confirmation en signalant qu'en cas de confirmation l'article va être supprimé du panier. Si confirmation suppression de l'article du panier. </t>
-  </si>
-  <si>
     <t>Pas d'affichage de fen^ter de confirmation.</t>
   </si>
   <si>
-    <t>164 à 176</t>
-  </si>
-  <si>
     <t xml:space="preserve">La cle article n'existe plus dans la local storage </t>
   </si>
   <si>
-    <t>193 à 284</t>
-  </si>
-  <si>
     <t>modalshow</t>
   </si>
   <si>
     <t>La qte est supérieure à 1, on diminue la qte de une unité, on met à jour la local storage ainsi que les zones totale panier et totale article</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette fonction est appelée par supprqte dans le cas ou la qte de l'article est égale à 1. Si clic sur bouton confirmation suppression. Si la cle article de la local storage contient plusieurs articles, on supprime l'article de la local storage on met à jour les zones totales, on supprime le code généré dans le DOM et on appelle la fonction qui va recharger la page. Si la clé article de la local storage ne contenait que cet article, on appelle la fonction supprPanier, </t>
-  </si>
-  <si>
     <t>Ajouter un article au panier avec une qte supérieure à 1. Aller sur page panier. Diminuer la qte de une unite. Vérifier les zones totales. Vérifier le contenu de la cle article dans la local storage</t>
   </si>
   <si>
     <t>La cle article n'existe pas dans la local storage. L'article à supoprimer n'existe pas dans la local storage</t>
   </si>
   <si>
-    <t>297 à 308</t>
-  </si>
-  <si>
     <t>supprCartArt</t>
   </si>
   <si>
@@ -289,27 +265,15 @@
     <t>Erreurs si la localstorage ne peut_ettre lu e ou n'est pas à jour.</t>
   </si>
   <si>
-    <t>310 à 341</t>
-  </si>
-  <si>
     <t>Si Clic sur bouton confirmation suppression du panier. Execution de supprPanier.=&gt; suppression du panier. Suppression de la cle "article" de la local storage. Affichage de la page panier avec "il n'y a plus articles dans le panier.</t>
   </si>
   <si>
     <t>Ajouter des articles au panier. Aller sur page panier et cliquer sur vider le panier. Vérifier affichage fen^tre de confirmation. Vérifier que la page se réaffiche avec "plus articles dans le panier" et que la local storage cle article n'existe plus.</t>
   </si>
   <si>
-    <t>343 à 740</t>
-  </si>
-  <si>
     <t>majpagehtml</t>
   </si>
   <si>
-    <t>709 à 738</t>
-  </si>
-  <si>
-    <t>Pas d'article dans le panier. Affichage de la page html avec "pas d'articles dans le panier". Le formulaire de validation n'est pas afficher, de même que le bouton vider le panier ainsi que les zones totales.</t>
-  </si>
-  <si>
     <t>Afficher la page panier avec un panier vide. Vérifier que le message "pas article dans le panier s'affiche". Que le formulaire de vaildation n'aopparait pas à l'écran ainsi que le bouton vider le panier et les zones totales. Vérifier qu'il ny a pas de clé article dans local storage.</t>
   </si>
   <si>
@@ -320,9 +284,6 @@
   </si>
   <si>
     <t>fonction qui va générer le code html de la page panier. S'il y a une cle article dans la local storage. Affichage du contenu du panier. Chaque article present dans le panier est affiché à l'intérieur d'une carte avec son nom, une photo, un descriptif , son prix, la qte commandée, le prix de la ligne article qte * prix. Un bouton "+" qui permettra d'ajouter une unité dans la qte, un bouton "-" qui  permettra d'enlever une unité, un bouton "suppression" qui permettra de supprimer l'article du panier.Affichage du prix total du panier et de la quantité totale présent dans le panier. Affichage d'un bouton "Vider le panier". On affiche le formulaire de validation.</t>
-  </si>
-  <si>
-    <t>580 à 703</t>
   </si>
   <si>
     <t xml:space="preserve">Impossibilité de se connecter au serveur. Problèmes de connexion. </t>
@@ -413,10 +374,49 @@
     <t>Ajouter un article au panier. Sur page panier Cliquer sur "+" et vérifier que la qte a bien été augmenter de une unité. Vérifier aussi que la qte pour cet article dans la local storage est bien à jour. Il faut aussi controler que les zones totales affichées prix total du panier, quantité du panier ainsi que prix de la igne article sont bien mis à jour.</t>
   </si>
   <si>
-    <t>Supprimer le panier s'il y en a un. Ajouter un article dans le panier avec qte = 1. Aller sur le panier et cliquer sur"-" pour enlever une unité à l'article. Vérifier que la fenêtre de confirmation de suppression de l'article s'affiche. Si confirmation de la suppression. Verifier que la suppression de l'article s'est bien déroulée, il ne doit plus y avoir de clé article dans la local storage. La page panier.html doit afficher "il n'y a plus articles dans sle panier". Ajouter un article dan sle panier qte = 1. Ajouter un autre article dans le panier qte = 1. Aller dans le panier. cliquer sur "-" sur le premier article pour enlever une unité à la qte. Vérifier affichage fenetre attention si vous confirmez vous allez supprimer cet article du panier achat. Confirmez. Panier doit réafficher la page avec simplement le second article saisi, la local stroage ne doit contenir plus que le second article.</t>
-  </si>
-  <si>
     <t>Ajout d'un article dans le panier avec qte = 2. Ajout d'un second article dans le panier avec qte =1. Sur panier panier.html se positionner sur le premier article et cliquer sur supprimer. Vérifier l'affichage de  la fenetre de confirmation suppression de l'article du panier et valider. La page panier doit s'afficher avec seulement le second article. Vérifier la local storage cle article, elle ne doit contenir que le second article. Maintenant cliquez sur supprimer sur l'article affiché. Vérifier l'affichage de la fenêtre de confirmation, confirmez. La page panier affiche "il n'y a plus articles dans le panier". Il n'y a plus de cle "article dans la local storage."</t>
+  </si>
+  <si>
+    <t>94 à 113</t>
+  </si>
+  <si>
+    <t>140 à 153</t>
+  </si>
+  <si>
+    <t>549 à 666</t>
+  </si>
+  <si>
+    <t>Pas d'article dans le panier. Affichage de la page html avec "pas d'articles dans le panier". Le formulaire de validation n'est pas affiché, de même que le bouton vider le panier ainsi que les zones totales.</t>
+  </si>
+  <si>
+    <t>673 à 706</t>
+  </si>
+  <si>
+    <t>314 à 672</t>
+  </si>
+  <si>
+    <t>292 à 312</t>
+  </si>
+  <si>
+    <t>268 à 279</t>
+  </si>
+  <si>
+    <t>Supprimer le panier s'il y en a un. Ajouter un article dans le panier avec qte = 1. Aller sur le panier et cliquer sur"-" pour enlever une unité à l'article. Vérifier que la fenêtre de confirmation de suppression de l'article s'affiche. Si confirmation de la suppression. Verifier que la suppression de l'article s'est bien déroulée, il ne doit plus y avoir de clé article dans la local storage. La page panier.html doit afficher "il n'y a plus articles dans sle panier". Ajouter un article dans le panier qte = 1. Ajouter un autre article dans le panier qte = 1. Aller dans le panier. cliquer sur "-" sur le premier article pour enlever une unité à la qte. Vérifier affichage fenetre attention si vous confirmez vous allez supprimer cet article du panier achat. Confirmez. Panier doit réafficher la page avec simplement le second article saisi, la local stroage ne doit contenir plus que le second article.</t>
+  </si>
+  <si>
+    <t>167 à 257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction est appelée par supprqte dans le cas ou la qte de l'article est égale à 1. Affichage fenêtre modale de confirmation suppression. Si clic sur bouton confirmation suppression. Si la cle article de la local storage contient plusieurs articles, on supprime l'article de la local storage on met à jour les zones totales, on supprime le code généré dans le DOM et on appelle la fonction qui va recharger la page. Si la clé article de la local storage ne contenait que cet article, on appelle la fonction supprPanier, </t>
+  </si>
+  <si>
+    <t>133 à 139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'utilisateur a cliqué sur "-" pour enlever 1 à la qte ou l'utilisateur a cliqué sur le bouton supprimer (dans ce cas on a affecté  1 à la qte pour que la carte soit supprimée quelque soit la qte réelle de l'article). Les lignes de code 133 à 139 traitent le cas ou la qte = 1 donc le cas ou si l'on diminue la qte de une unité on supprime l'article du panier. Appel de la fonction modalShow qui envoie une fenêtre de confirmation signalant qu'en cas de confirmation l'article va être supprimé. </t>
+  </si>
+  <si>
+    <t>Ajouter un article dans le panier avec une qte égale à 1. Diminuer la qte de une unité. Vérifier que la  fenêtre de confirmation s'affiche bien avec le message signalent qu'en cas de confirmation l'article sera supprimé du panier.</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,6 +507,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,8 +732,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -802,10 +805,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>24</v>
@@ -850,7 +853,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>20</v>
@@ -885,10 +888,10 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>23</v>
@@ -1012,7 +1015,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>53</v>
@@ -1030,7 +1033,7 @@
         <v>55</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>53</v>
@@ -1048,17 +1051,17 @@
         <v>57</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1068,269 +1071,269 @@
         <v>61</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="B20" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="D20" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="10" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="D22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="B23" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="D23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>89</v>
+      <c r="B24" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="F27" s="10" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -6184,5 +6187,6 @@
     <mergeCell ref="G3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>